--- a/instance_info_be.xlsx
+++ b/instance_info_be.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i-07b3624c8584f7121</t>
+          <t>i-0cacfc6c314826e79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,22 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>54.226.217.29</t>
+          <t>3.83.139.246</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>172.31.25.227</t>
+          <t>172.31.89.191</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-02-22 07:10:20+00:00</t>
+          <t>2024-02-29 11:04:39+00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>launch-wizard-1</t>
+          <t>suri-tm</t>
         </is>
       </c>
     </row>
